--- a/Stand Up Comedy(Front Half) (Responses) (1).xlsx
+++ b/Stand Up Comedy(Front Half) (Responses) (1).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="297">
   <si>
     <t>Timestamp</t>
   </si>
@@ -461,6 +461,447 @@
   </si>
   <si>
     <t>cs23bt004@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Nipun</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s_67fRigddENbQAQJ_FBFkhG7js52Zxd</t>
+  </si>
+  <si>
+    <t>220120012@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Vivek Pillai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PWUkgOAYYBWXqPgnFbT7sDVGtCg5uDqY</t>
+  </si>
+  <si>
+    <t>210010058@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Prabhakar </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JJ17KD9IW_ip9K-WHYN61_sKZIGZ14Lr</t>
+  </si>
+  <si>
+    <t>cs23bt017@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwin Waghmare </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-qX5Kqv6JbkK5zAE8R8wpuhDpJKDeU01</t>
+  </si>
+  <si>
+    <t>210010060@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Tejal Ladage</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_ex3mofyT_lgBq_pNMYBHYppsMl6Jdyn</t>
+  </si>
+  <si>
+    <t>210010026@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalidindi Dhrutika </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1w8roQsL_oZWDhUhKTXdCGMa5pPaXdj3k</t>
+  </si>
+  <si>
+    <t>210010021@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Arvind </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=107Jl7gYEqF2J__Iqqm_0jspmPD2o7qTF</t>
+  </si>
+  <si>
+    <t>210020046@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddey Chandra Vamshi </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lAHTVu_KLYuSdbCojFquVKuRPi-sK7xh</t>
+  </si>
+  <si>
+    <t>220030042@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Vidhi Kadam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14G72k-ZDjp4f_on9WcSPHI3A0OuDZu74</t>
+  </si>
+  <si>
+    <t>me23bt043@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishita Seepana </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uv0BXmSbseb-MIYEDTjtCqQLTtJV3JWv</t>
+  </si>
+  <si>
+    <t>mc23bt014@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swasti </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VTghj0_P8bZm4cVfhSDfJQmKSr0g3Bz9</t>
+  </si>
+  <si>
+    <t>is23bm032@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Saee Khedkar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16pTVJ_FTx7waij36gmQauEeQSKZyPzDg</t>
+  </si>
+  <si>
+    <t>me23bt039@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Sankalp Nagaonkar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lDWqq1evxPn0zXtAb-PmEPU1iK8L2bbc</t>
+  </si>
+  <si>
+    <t>210020031@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Vedant Wagh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1C_PHSO5QI2sTA4_Zaspk0JLbTk6Upm7u</t>
+  </si>
+  <si>
+    <t>210030046@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Piyush Kiran More</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1SuIuhNtk2uQupSTafzfLuOPjQQF2nT3E</t>
+  </si>
+  <si>
+    <t>225100028@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Gosavi </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZK8RzNLXPnXy2zF3N8Lm8BYJdVykT9a2</t>
+  </si>
+  <si>
+    <t>220020038@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Tejas Mhaiskar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eeHq55u-uuT-CoSN8TPBMx8KF4mz54BV</t>
+  </si>
+  <si>
+    <t>210030039@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Tushar Moitra</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10WwlkqiCYzkzzg81k2CxtwOfizM5Hfb6</t>
+  </si>
+  <si>
+    <t>225100036@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Kartikeya Kumar Singh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_G6JhV7CK1mRl6QElzjZ5wFh7t_16dwQ</t>
+  </si>
+  <si>
+    <t>PFA.</t>
+  </si>
+  <si>
+    <t>223031004@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshana Mandve </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lNmdw2d3oQXxTn6eYWGiZR1yO8hi3y2Q</t>
+  </si>
+  <si>
+    <t>222041001@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Yash Meshram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s09RefR0pbXLlyJm-hfIPn3oYMUL0cxl</t>
+  </si>
+  <si>
+    <t>paid 🫡</t>
+  </si>
+  <si>
+    <t>210020053@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratham Prasad More </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=143Y8OAVRbBZzXz25X7PjDJT94BSNDGsr</t>
+  </si>
+  <si>
+    <t>Paid 300 sir</t>
+  </si>
+  <si>
+    <t>210150011@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Harsh Vardhan Chowdhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1i10ljoyBTuDFkzJwxsvguL-myrhwgadf</t>
+  </si>
+  <si>
+    <t>Le Agrim</t>
+  </si>
+  <si>
+    <t>210030013@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Ayush Singhi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1M2DbKQih6-Fv9Hmy6IeLgFAYZkdYCJRE</t>
+  </si>
+  <si>
+    <t>haha pussy</t>
+  </si>
+  <si>
+    <t>210020048@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Vansh Yadav</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=100OwZnhKMF3RzK-N_dTjoQ42jb_zDg7-</t>
+  </si>
+  <si>
+    <t>210030048@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Ansh Vivek</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WaPqYePIswXlU27xObfrpqhlgRkmuCtR</t>
+  </si>
+  <si>
+    <t>210020002@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanshu </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12N9OEqmTfAjqbQ8M9PTOD-aOZnbTtIv4</t>
+  </si>
+  <si>
+    <t>is23bm007@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Prachet Vikas Rane</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hBZYAXE76CrKsGyrUCX16ESYKWTDNPHU</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>cs23bt042@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himank Bhati </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lc-2VrbSP6e8dZwbgxoookQjhiEtQyFZ</t>
+  </si>
+  <si>
+    <t>me23bt004@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prajwal N Prasad </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kHGSY8UJ9YL68E9aCo3shFwjZ1d4WzPY</t>
+  </si>
+  <si>
+    <t>me23bt029@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashas Subramanya </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qt3Zi86PpBVusLmW_dmC-SccR84W8iG9</t>
+  </si>
+  <si>
+    <t>mc23bt007@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Shinde Manav</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1K5ATsalRjhYPkJKE6C64lohpayxJlsmP</t>
+  </si>
+  <si>
+    <t>payment done</t>
+  </si>
+  <si>
+    <t>225100032@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravallika </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l18F0Ezj15QiSQ7Ub-ZewJ3n8IMfV9VU</t>
+  </si>
+  <si>
+    <t>cs23bt059@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koppella Jyothika Sruthi </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11NL_Tp3cnzYMBCEdEPBXhBrKuX0_lnbJ</t>
+  </si>
+  <si>
+    <t>ee23bt002@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Aniruddh Pandav</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1I4t4-xa9W7I_gh8kekR0l1999Hy_ImUy</t>
+  </si>
+  <si>
+    <t>ee23bt031@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saksham Chhimwal </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15Fow2lfCizMm8RFnckAOlrIScYsEucK1</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>210010046@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARSHDEEP SINGH </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EacjmAdaXBRKuFhlIPLhQAa8QHvQQHxM</t>
+  </si>
+  <si>
+    <t>ee23bt050@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>KARAN KUMAR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_8Rp1XMjWEhNPQHKEFOi_M6RVF6Vaisd</t>
+  </si>
+  <si>
+    <t>225100016@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Kushal Mohta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1j9XuMVuUurUHNf63vK27EiWP0sI0dLL9</t>
+  </si>
+  <si>
+    <t>210020023@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurjaipal Singh </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_VDaaP6lHEqzKruCiCO0BDk0ERCw286-</t>
+  </si>
+  <si>
+    <t>220120008@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t>Soumya Shaw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Fwe7k_n34lfQBj8vQWNpz_BftlnyOcZL</t>
+  </si>
+  <si>
+    <t>ee23bt008@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Suhas Deshmukh </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_UIunbwmbsHePH19LbDXuRWSXXsDH1di</t>
+  </si>
+  <si>
+    <t>210010033@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarth Rajain </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11PrILyC4YC9Dlq74DFW7wEB54I5Qpieg</t>
+  </si>
+  <si>
+    <t>210010048@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parikshit Gehlaut </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HUSBiKQZMOhrfUb1OxgIDeosrDOkdoGJ</t>
+  </si>
+  <si>
+    <t>220150009@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohan Khandelwal </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g8pT-zZ_ZvvwRpAdIZbkemXoMwKoQmro</t>
+  </si>
+  <si>
+    <t>T2401101843423123130438</t>
+  </si>
+  <si>
+    <t>is23bm022@iitdh.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Gulhane </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=101gsNwI5Lw2ce8TVJ3sKx6ETSM-1HtLO</t>
+  </si>
+  <si>
+    <t>210010006@iitdh.ac.in</t>
   </si>
 </sst>
 </file>
@@ -487,7 +928,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +941,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -507,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -528,6 +975,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1616,6 +2066,842 @@
         <v>149</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>45299.89756150463</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>45299.908196944445</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>45299.93810003472</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>45300.00628390047</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>45300.007077002316</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>45300.008301435184</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>45300.00856418982</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>45300.48724797454</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>45300.5434637037</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>45300.54381732639</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>45300.54506993055</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>45300.568279432875</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>45300.58655357639</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>45300.59043802084</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>45300.60112337963</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>45300.602971238426</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>45300.63296037037</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>45300.750262118054</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>45300.77238238426</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>45300.778700497685</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>45300.811651157404</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>45300.82929450231</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>45300.83479462963</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>45300.83713320602</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>45300.862440625</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>45300.86623439815</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>45300.88477048611</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>45300.884779189815</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>45300.886450543985</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>45300.89604309028</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>45300.899577233795</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>45300.91122097222</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>45300.92852023148</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>45300.93048241898</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>45300.94751005787</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>45300.966725659724</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>45300.968432118054</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>45300.98099175926</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>45300.98606793981</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>45300.99390938657</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>45301.02513556713</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>45301.47446527777</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>45301.474754375</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>45301.58014491898</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>45301.78200465278</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>45301.85581488426</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -1667,7 +2953,53 @@
     <hyperlink r:id="rId47" ref="D48"/>
     <hyperlink r:id="rId48" ref="D49"/>
     <hyperlink r:id="rId49" ref="D50"/>
+    <hyperlink r:id="rId50" ref="D51"/>
+    <hyperlink r:id="rId51" ref="D52"/>
+    <hyperlink r:id="rId52" ref="D53"/>
+    <hyperlink r:id="rId53" ref="D54"/>
+    <hyperlink r:id="rId54" ref="D55"/>
+    <hyperlink r:id="rId55" ref="D56"/>
+    <hyperlink r:id="rId56" ref="D57"/>
+    <hyperlink r:id="rId57" ref="D58"/>
+    <hyperlink r:id="rId58" ref="D59"/>
+    <hyperlink r:id="rId59" ref="D60"/>
+    <hyperlink r:id="rId60" ref="D61"/>
+    <hyperlink r:id="rId61" ref="D62"/>
+    <hyperlink r:id="rId62" ref="D63"/>
+    <hyperlink r:id="rId63" ref="D64"/>
+    <hyperlink r:id="rId64" ref="D65"/>
+    <hyperlink r:id="rId65" ref="D66"/>
+    <hyperlink r:id="rId66" ref="D67"/>
+    <hyperlink r:id="rId67" ref="D68"/>
+    <hyperlink r:id="rId68" ref="D69"/>
+    <hyperlink r:id="rId69" ref="D70"/>
+    <hyperlink r:id="rId70" ref="D71"/>
+    <hyperlink r:id="rId71" ref="D72"/>
+    <hyperlink r:id="rId72" ref="D73"/>
+    <hyperlink r:id="rId73" ref="D74"/>
+    <hyperlink r:id="rId74" ref="D75"/>
+    <hyperlink r:id="rId75" ref="D76"/>
+    <hyperlink r:id="rId76" ref="D77"/>
+    <hyperlink r:id="rId77" ref="D78"/>
+    <hyperlink r:id="rId78" ref="D79"/>
+    <hyperlink r:id="rId79" ref="D80"/>
+    <hyperlink r:id="rId80" ref="D81"/>
+    <hyperlink r:id="rId81" ref="D82"/>
+    <hyperlink r:id="rId82" ref="D83"/>
+    <hyperlink r:id="rId83" ref="D84"/>
+    <hyperlink r:id="rId84" ref="D85"/>
+    <hyperlink r:id="rId85" ref="D86"/>
+    <hyperlink r:id="rId86" ref="D87"/>
+    <hyperlink r:id="rId87" ref="D88"/>
+    <hyperlink r:id="rId88" ref="D89"/>
+    <hyperlink r:id="rId89" ref="D90"/>
+    <hyperlink r:id="rId90" ref="D91"/>
+    <hyperlink r:id="rId91" ref="D92"/>
+    <hyperlink r:id="rId92" ref="D93"/>
+    <hyperlink r:id="rId93" ref="D94"/>
+    <hyperlink r:id="rId94" ref="D95"/>
+    <hyperlink r:id="rId95" ref="D96"/>
   </hyperlinks>
-  <drawing r:id="rId50"/>
+  <drawing r:id="rId96"/>
 </worksheet>
 </file>